--- a/biology/Botanique/Bon_Gustave/Bon_Gustave.xlsx
+++ b/biology/Botanique/Bon_Gustave/Bon_Gustave.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Bon Gustave est une variété de poire.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Bon-Gustave</t>
         </is>
@@ -541,9 +555,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Semis du major Esperen de Malines, propagé par Berckmans qui lui donne le nom son fils[1]. L'arbre ne fructifie qu'à partir de 1847[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Semis du major Esperen de Malines, propagé par Berckmans qui lui donne le nom son fils. L'arbre ne fructifie qu'à partir de 1847.
 </t>
         </is>
       </c>
@@ -572,12 +588,14 @@
           <t>Arbre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Rameaux peu forts à entre-nœuds très court, d'un rougeâtre clair, voilé de gris. Les lenticelles sont peu nombreux.
 Boutons à bois coniques, courts, à direction écartée du rameau, soutenus sur des supports nus. Écailles d'un marron noir.
 Boutons à fruit moyens, conico-ovoïdes, écailles d'un marron foncé.
-Fleurs moyennes[1].</t>
+Fleurs moyennes.</t>
         </is>
       </c>
     </row>
@@ -605,9 +623,11 @@
           <t>Fruit</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il présente une taille au-dessus de la moyenne et souvent plus[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il présente une taille au-dessus de la moyenne et souvent plus.
 </t>
         </is>
       </c>
@@ -636,9 +656,11 @@
           <t>Appréciation générale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Variété qui n'est pas toujours de deuxième ordre. Elle peut se révéler très intéressante[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Variété qui n'est pas toujours de deuxième ordre. Elle peut se révéler très intéressante.
 </t>
         </is>
       </c>
